--- a/صيدليات دكتور مصطفي طلعت_2026-01-06_18-58.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-06_18-58.xlsx
@@ -161,6 +161,9 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>7:1</t>
+  </si>
+  <si>
     <t>DOLO-D PLUS ORAL SUSP. 115 ML</t>
   </si>
   <si>
@@ -212,9 +215,6 @@
     <t>INIZIO WHITENING CREAM</t>
   </si>
   <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -257,9 +257,6 @@
     <t>OPLEX N PLUS 10 SUPP.</t>
   </si>
   <si>
-    <t>7:1</t>
-  </si>
-  <si>
     <t>OPLEX-N SYRUP 125ML</t>
   </si>
   <si>
@@ -269,9 +266,6 @@
     <t>PANADOL COLD &amp; FLU DAY 24 F.C. TABS</t>
   </si>
   <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
     <t>PANTOPI 40MG 14 TAB</t>
   </si>
   <si>
@@ -311,9 +305,6 @@
     <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
-    <t>TRIAMERICAN 1GM I.M. VIAL</t>
-  </si>
-  <si>
     <t>TRIBULIVA TAB</t>
   </si>
   <si>
@@ -356,12 +347,6 @@
     <t xml:space="preserve">بلاستر 2سم </t>
   </si>
   <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>17:0</t>
-  </si>
-  <si>
     <t>حلق</t>
   </si>
   <si>
@@ -377,9 +362,6 @@
     <t>سرنجات 5 سم</t>
   </si>
   <si>
-    <t>-3:0</t>
-  </si>
-  <si>
     <t>سيتي بيبي رقم 4</t>
   </si>
   <si>
@@ -390,9 +372,6 @@
   </si>
   <si>
     <t>فازلين مستورد 50مل</t>
-  </si>
-  <si>
-    <t xml:space="preserve">كالونا </t>
   </si>
   <si>
     <t>مناديل FINE</t>
@@ -1670,17 +1649,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1688,7 +1667,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1696,7 +1675,7 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
@@ -1714,7 +1693,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1740,7 +1719,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1766,7 +1745,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1792,7 +1771,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1818,7 +1797,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1826,7 +1805,7 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
@@ -1844,7 +1823,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1870,7 +1849,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1878,7 +1857,7 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
@@ -1896,7 +1875,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1922,7 +1901,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1948,7 +1927,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1974,7 +1953,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -2000,7 +1979,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2026,7 +2005,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2052,7 +2031,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2078,7 +2057,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2086,13 +2065,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2104,7 +2083,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2112,13 +2091,13 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
@@ -2130,7 +2109,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2138,13 +2117,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2156,7 +2135,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2164,17 +2143,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>30</v>
+        <v>27.329999999999998</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2182,7 +2161,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2190,17 +2169,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>27.329999999999998</v>
+        <v>31</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2208,7 +2187,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2216,13 +2195,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2234,7 +2213,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2248,7 +2227,7 @@
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2260,7 +2239,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2268,17 +2247,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>75</v>
+        <v>-57</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2286,7 +2265,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2294,17 +2273,17 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>-57</v>
+        <v>39</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2312,7 +2291,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2320,17 +2299,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2338,7 +2317,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2352,11 +2331,11 @@
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2364,7 +2343,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2372,17 +2351,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>43</v>
+        <v>76.439999999999998</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2390,7 +2369,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2398,17 +2377,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>76.439999999999998</v>
+        <v>16</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2416,7 +2395,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2424,17 +2403,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2450,17 +2429,17 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2476,17 +2455,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2502,13 +2481,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2528,17 +2507,17 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" ht="24.75" customHeight="1">
@@ -2554,17 +2533,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2580,17 +2559,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>160</v>
+        <v>7.0499999999999998</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2606,13 +2585,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>67</v>
+        <v>47.670000000000002</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2632,17 +2611,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>7.0499999999999998</v>
+        <v>89.099999999999994</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2658,17 +2637,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>47.670000000000002</v>
+        <v>-185</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2684,13 +2663,13 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>89.099999999999994</v>
+        <v>71</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2710,17 +2689,17 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>-185</v>
+        <v>45.5</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="24.75" customHeight="1">
@@ -2728,7 +2707,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2736,17 +2715,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2754,7 +2733,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2762,17 +2741,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>45.5</v>
+        <v>70</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2788,13 +2767,13 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
@@ -2820,11 +2799,11 @@
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2840,17 +2819,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>22</v>
+        <v>72</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2866,17 +2845,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2892,17 +2871,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2910,7 +2889,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2918,13 +2897,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>72</v>
+        <v>104</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2936,7 +2915,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2944,17 +2923,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>106</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>122</v>
+        <v>12.5</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>9</v>
+        <v>107</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -2962,7 +2941,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2970,17 +2949,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>26</v>
+        <v>224</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2988,7 +2967,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2996,17 +2975,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3014,7 +2993,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3022,17 +3001,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3048,17 +3027,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3074,13 +3053,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3100,17 +3079,17 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
-        <v>9</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1">
@@ -3118,7 +3097,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3126,17 +3105,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3144,7 +3123,7 @@
         <v>84</v>
       </c>
       <c t="s" r="B87" s="7">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -3152,13 +3131,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>116</v>
+        <v>12</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3170,7 +3149,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3178,13 +3157,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3196,7 +3175,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3204,17 +3183,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>120</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3222,7 +3201,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3230,17 +3209,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>10</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3248,7 +3227,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3256,13 +3235,13 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
@@ -3274,7 +3253,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3282,181 +3261,51 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c t="s" r="H92" s="8">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
-      <c r="A93" s="6">
-        <v>90</v>
-      </c>
-      <c t="s" r="B93" s="7">
+      <c r="K93" s="10">
+        <v>3958.8600000000001</v>
+      </c>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+    </row>
+    <row r="94" ht="17.25" customHeight="1">
+      <c t="s" r="A94" s="11">
+        <v>124</v>
+      </c>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c t="s" r="F94" s="12">
         <v>125</v>
       </c>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c t="s" r="H93" s="8">
-        <v>30</v>
-      </c>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
-      <c r="L93" s="9">
-        <v>85</v>
-      </c>
-      <c r="M93" s="9"/>
-      <c t="s" r="N93" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" ht="24.75" customHeight="1">
-      <c r="A94" s="6">
-        <v>91</v>
-      </c>
-      <c t="s" r="B94" s="7">
+      <c r="G94" s="12"/>
+      <c r="H94" s="13"/>
+      <c t="s" r="I94" s="14">
         <v>126</v>
       </c>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c t="s" r="H94" s="8">
-        <v>9</v>
-      </c>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="9">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="M94" s="9"/>
-      <c t="s" r="N94" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" ht="25.5" customHeight="1">
-      <c r="A95" s="6">
-        <v>92</v>
-      </c>
-      <c t="s" r="B95" s="7">
-        <v>127</v>
-      </c>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c t="s" r="H95" s="8">
-        <v>119</v>
-      </c>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="9">
-        <v>15</v>
-      </c>
-      <c r="M95" s="9"/>
-      <c t="s" r="N95" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" ht="24.75" customHeight="1">
-      <c r="A96" s="6">
-        <v>93</v>
-      </c>
-      <c t="s" r="B96" s="7">
-        <v>128</v>
-      </c>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c t="s" r="H96" s="8">
-        <v>129</v>
-      </c>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
-      <c r="L96" s="9">
-        <v>30</v>
-      </c>
-      <c r="M96" s="9"/>
-      <c t="s" r="N96" s="7">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" ht="25.5" customHeight="1">
-      <c r="A97" s="6">
-        <v>94</v>
-      </c>
-      <c t="s" r="B97" s="7">
-        <v>130</v>
-      </c>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c t="s" r="H97" s="8">
-        <v>129</v>
-      </c>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
-      <c r="L97" s="9">
-        <v>70</v>
-      </c>
-      <c r="M97" s="9"/>
-      <c t="s" r="N97" s="7">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="98" ht="25.5" customHeight="1">
-      <c r="K98" s="10">
-        <v>4245.8599999999997</v>
-      </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-    </row>
-    <row r="99" ht="17.25" customHeight="1">
-      <c t="s" r="A99" s="11">
-        <v>131</v>
-      </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c t="s" r="F99" s="12">
-        <v>132</v>
-      </c>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c t="s" r="I99" s="14">
-        <v>133</v>
-      </c>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="293">
+  <mergeCells count="278">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3731,25 +3580,10 @@
     <mergeCell ref="B92:G92"/>
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
-    <mergeCell ref="B93:G93"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="B94:G94"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="B96:G96"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="B97:G97"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="K98:N98"/>
-    <mergeCell ref="A99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:N99"/>
+    <mergeCell ref="K93:N93"/>
+    <mergeCell ref="A94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="I94:N94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
